--- a/Output/时间轴配置/时间轴 p3s 诗人.xlsx
+++ b/Output/时间轴配置/时间轴 p3s 诗人.xlsx
@@ -11,7 +11,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
@@ -351,7 +350,7 @@
     <t>#上天小鸟阶段不打爆发</t>
   </si>
   <si>
-    <t>Action:Burst:是否允许爆发</t>
+    <t>Action:SwitchBurst:是否允许爆发</t>
   </si>
   <si>
     <t>Action:SongList:设置战斗中接下来的诗人歌单</t>
@@ -380,10 +379,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -402,23 +401,131 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,15 +537,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -447,105 +545,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -607,42 +606,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -655,127 +762,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,15 +785,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -830,9 +820,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,21 +877,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -875,17 +885,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -894,10 +893,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -906,133 +905,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1158,21 +1157,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="轴"/>
-      <sheetName val="#参数说明"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1477,7 +1461,7 @@
   <dimension ref="A1:AQ43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1987,14 +1971,14 @@
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D23 D24 D21:D22 D25:D26">
+      <formula1>"Cond,Action"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>$C$4:$AQ$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E23 E24 E21:E22 E25:E26">
-      <formula1>'[2]#参数说明'!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D23 D24 D21:D22 D25:D26">
-      <formula1>"Cond,Action"</formula1>
+      <formula1>'[1]#参数说明'!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
